--- a/refFiles/AGD_DBSchema_20220504_V2.xlsx
+++ b/refFiles/AGD_DBSchema_20220504_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-150" yWindow="-210" windowWidth="23280" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SP_config" sheetId="9" r:id="rId1"/>
@@ -5460,10 +5460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SerialNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -5534,6 +5530,10 @@
   </si>
   <si>
     <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6113,7 +6113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6124,8 +6124,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6184,16 +6184,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1629</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>38</v>
@@ -16921,13 +16921,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H402" sqref="H402"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16942,14 +16941,15 @@
     <col min="8" max="8" width="8.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="10.75" style="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.125" style="22" customWidth="1"/>
     <col min="18" max="18" width="7.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.25" style="3" customWidth="1"/>
-    <col min="20" max="20" width="7.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.875" style="3" customWidth="1"/>
     <col min="22" max="22" width="11.875" style="3" customWidth="1"/>
     <col min="23" max="23" width="10.25" style="3" bestFit="1" customWidth="1"/>
@@ -17034,7 +17034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -17877,7 +17877,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
@@ -17904,7 +17904,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -17931,7 +17931,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>37</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1631</v>
+        <v>1647</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>57</v>
@@ -18071,7 +18071,7 @@
       <c r="X27" s="36"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -18079,10 +18079,10 @@
         <v>1629</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>1632</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>1633</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>675</v>
@@ -18126,7 +18126,7 @@
       </c>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -18134,13 +18134,13 @@
         <v>1629</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>1634</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>1635</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
@@ -18179,7 +18179,7 @@
       <c r="X29" s="36"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="1:25" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -18187,16 +18187,16 @@
         <v>1629</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>1636</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="13" t="s">
         <v>1637</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>1638</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>653</v>
@@ -18231,7 +18231,7 @@
       <c r="X30" s="36"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -18239,16 +18239,16 @@
         <v>1629</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>1530</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H31" s="40" t="s">
         <v>1639</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>1640</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>653</v>
@@ -18284,7 +18284,7 @@
       <c r="X31" s="36"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="1:25" ht="16.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -18292,16 +18292,16 @@
         <v>1629</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>1641</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>1642</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1643</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>40</v>
@@ -18337,7 +18337,7 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -18345,13 +18345,13 @@
         <v>1629</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>1644</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>1645</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
@@ -18388,7 +18388,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>37</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>1629</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
@@ -18416,7 +18416,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>1629</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
@@ -18444,7 +18444,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>1629</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
@@ -18472,7 +18472,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>1629</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -18503,7 +18503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>1629</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -18534,7 +18534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>1629</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
@@ -18565,7 +18565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>37</v>
       </c>
@@ -18744,7 +18744,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>37</v>
       </c>
@@ -18772,7 +18772,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>37</v>
       </c>
@@ -18800,7 +18800,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>37</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>37</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>37</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>37</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>37</v>
       </c>
@@ -19072,7 +19072,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>37</v>
       </c>
@@ -19100,7 +19100,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>37</v>
       </c>
@@ -19128,7 +19128,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>37</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>37</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>37</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>37</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>37</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>37</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>37</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>37</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>37</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>37</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>37</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>37</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>37</v>
       </c>
@@ -19679,7 +19679,7 @@
       <c r="N67" s="17"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>37</v>
       </c>
@@ -19710,7 +19710,7 @@
       <c r="N68" s="17"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>37</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="N69" s="17"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>37</v>
       </c>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>37</v>
       </c>
@@ -19809,7 +19809,7 @@
       </c>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>37</v>
       </c>
@@ -19843,7 +19843,7 @@
       </c>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>37</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>37</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>37</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>37</v>
       </c>
@@ -20026,7 +20026,7 @@
       <c r="N76" s="17"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>37</v>
       </c>
@@ -20057,7 +20057,7 @@
       <c r="N77" s="17"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>37</v>
       </c>
@@ -20088,7 +20088,7 @@
       <c r="N78" s="17"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>37</v>
       </c>
@@ -20122,7 +20122,7 @@
       </c>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>37</v>
       </c>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>37</v>
       </c>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>37</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>37</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>37</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>37</v>
       </c>
@@ -20372,7 +20372,7 @@
       <c r="N85" s="17"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>37</v>
       </c>
@@ -20402,7 +20402,7 @@
       <c r="N86" s="17"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>37</v>
       </c>
@@ -20432,7 +20432,7 @@
       <c r="N87" s="17"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>37</v>
       </c>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>37</v>
       </c>
@@ -20498,7 +20498,7 @@
       </c>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>37</v>
       </c>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>37</v>
       </c>
@@ -20580,7 +20580,7 @@
       <c r="X91" s="36"/>
       <c r="Y91" s="36"/>
     </row>
-    <row r="92" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>37</v>
       </c>
@@ -20639,7 +20639,7 @@
       </c>
       <c r="Y92" s="36"/>
     </row>
-    <row r="93" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>37</v>
       </c>
@@ -20692,7 +20692,7 @@
       <c r="X93" s="36"/>
       <c r="Y93" s="36"/>
     </row>
-    <row r="94" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>37</v>
       </c>
@@ -20747,7 +20747,7 @@
       <c r="X94" s="36"/>
       <c r="Y94" s="36"/>
     </row>
-    <row r="95" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>37</v>
       </c>
@@ -20798,7 +20798,7 @@
       <c r="X95" s="36"/>
       <c r="Y95" s="36"/>
     </row>
-    <row r="96" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>37</v>
       </c>
@@ -20839,7 +20839,7 @@
       <c r="X96" s="36"/>
       <c r="Y96" s="36"/>
     </row>
-    <row r="97" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>37</v>
       </c>
@@ -20880,7 +20880,7 @@
       <c r="X97" s="36"/>
       <c r="Y97" s="36"/>
     </row>
-    <row r="98" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
@@ -20921,7 +20921,7 @@
       <c r="X98" s="36"/>
       <c r="Y98" s="36"/>
     </row>
-    <row r="99" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>37</v>
       </c>
@@ -20966,7 +20966,7 @@
       <c r="X99" s="36"/>
       <c r="Y99" s="36"/>
     </row>
-    <row r="100" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>37</v>
       </c>
@@ -21009,7 +21009,7 @@
       <c r="X100" s="36"/>
       <c r="Y100" s="36"/>
     </row>
-    <row r="101" spans="1:25" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>37</v>
       </c>
@@ -21052,7 +21052,7 @@
       <c r="X101" s="36"/>
       <c r="Y101" s="36"/>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>37</v>
       </c>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="Y102"/>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>37</v>
       </c>
@@ -21151,7 +21151,7 @@
       </c>
       <c r="Y103"/>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>37</v>
       </c>
@@ -21205,7 +21205,7 @@
       </c>
       <c r="Y104"/>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>37</v>
       </c>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="Y105"/>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>37</v>
       </c>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="Y106"/>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>37</v>
       </c>
@@ -21335,7 +21335,7 @@
       <c r="X107"/>
       <c r="Y107"/>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>37</v>
       </c>
@@ -21369,7 +21369,7 @@
       <c r="T108"/>
       <c r="Y108"/>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>37</v>
       </c>
@@ -21403,7 +21403,7 @@
       <c r="T109"/>
       <c r="Y109"/>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>37</v>
       </c>
@@ -21437,7 +21437,7 @@
       <c r="T110"/>
       <c r="Y110"/>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>37</v>
       </c>
@@ -21474,7 +21474,7 @@
       <c r="T111"/>
       <c r="Y111"/>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>37</v>
       </c>
@@ -21511,7 +21511,7 @@
       <c r="T112"/>
       <c r="Y112"/>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>37</v>
       </c>
@@ -21548,7 +21548,7 @@
       <c r="T113"/>
       <c r="Y113"/>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>37</v>
       </c>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="Y114"/>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>37</v>
       </c>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="Y115"/>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>37</v>
       </c>
@@ -21703,7 +21703,7 @@
       </c>
       <c r="Y116"/>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>37</v>
       </c>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="Y117"/>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>37</v>
       </c>
@@ -21797,7 +21797,7 @@
       </c>
       <c r="Y118"/>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>37</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>37</v>
       </c>
@@ -21882,7 +21882,7 @@
       <c r="T120"/>
       <c r="Y120"/>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>37</v>
       </c>
@@ -21916,7 +21916,7 @@
       <c r="T121"/>
       <c r="Y121"/>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>37</v>
       </c>
@@ -21950,7 +21950,7 @@
       <c r="T122"/>
       <c r="Y122"/>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>37</v>
       </c>
@@ -21987,7 +21987,7 @@
       <c r="T123"/>
       <c r="Y123"/>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>37</v>
       </c>
@@ -22024,7 +22024,7 @@
       <c r="T124"/>
       <c r="Y124"/>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>37</v>
       </c>
@@ -22061,7 +22061,7 @@
       <c r="T125"/>
       <c r="Y125"/>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>37</v>
       </c>
@@ -22101,7 +22101,7 @@
       </c>
       <c r="Y126"/>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>37</v>
       </c>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="Y127"/>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>37</v>
       </c>
@@ -22216,7 +22216,7 @@
       </c>
       <c r="Y128"/>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>37</v>
       </c>
@@ -22269,7 +22269,7 @@
       </c>
       <c r="Y129"/>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>37</v>
       </c>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="Y130"/>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>37</v>
       </c>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="Y131"/>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>37</v>
       </c>
@@ -22403,7 +22403,7 @@
       </c>
       <c r="Y132"/>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>37</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>37</v>
       </c>
@@ -22486,7 +22486,7 @@
       <c r="T134"/>
       <c r="Y134"/>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>37</v>
       </c>
@@ -22519,7 +22519,7 @@
       <c r="T135"/>
       <c r="Y135"/>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>37</v>
       </c>
@@ -22552,7 +22552,7 @@
       <c r="T136"/>
       <c r="Y136"/>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>37</v>
       </c>
@@ -22588,7 +22588,7 @@
       <c r="T137"/>
       <c r="Y137"/>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>37</v>
       </c>
@@ -22624,7 +22624,7 @@
       <c r="T138"/>
       <c r="Y138"/>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>37</v>
       </c>
@@ -22660,7 +22660,7 @@
       <c r="T139"/>
       <c r="Y139"/>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>37</v>
       </c>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="Y140"/>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>37</v>
       </c>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="Y141"/>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>37</v>
       </c>
@@ -22811,7 +22811,7 @@
       </c>
       <c r="Y142"/>
     </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>37</v>
       </c>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="Y143"/>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>37</v>
       </c>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="Y144"/>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>37</v>
       </c>
@@ -22959,7 +22959,7 @@
       </c>
       <c r="Y145"/>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>37</v>
       </c>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="Y146"/>
     </row>
-    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>37</v>
       </c>
@@ -23047,7 +23047,7 @@
       </c>
       <c r="Y147"/>
     </row>
-    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>37</v>
       </c>
@@ -23079,7 +23079,7 @@
       <c r="T148"/>
       <c r="Y148"/>
     </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>37</v>
       </c>
@@ -23112,7 +23112,7 @@
       <c r="T149"/>
       <c r="Y149"/>
     </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>37</v>
       </c>
@@ -23145,7 +23145,7 @@
       <c r="T150"/>
       <c r="Y150"/>
     </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>37</v>
       </c>
@@ -23181,7 +23181,7 @@
       <c r="T151"/>
       <c r="Y151"/>
     </row>
-    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>37</v>
       </c>
@@ -23217,7 +23217,7 @@
       <c r="T152"/>
       <c r="Y152"/>
     </row>
-    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>37</v>
       </c>
@@ -23253,7 +23253,7 @@
       <c r="T153"/>
       <c r="Y153"/>
     </row>
-    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>37</v>
       </c>
@@ -23293,7 +23293,7 @@
       </c>
       <c r="Y154"/>
     </row>
-    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>37</v>
       </c>
@@ -23351,7 +23351,7 @@
       </c>
       <c r="Y155"/>
     </row>
-    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>37</v>
       </c>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="Y156"/>
     </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>37</v>
       </c>
@@ -23454,7 +23454,7 @@
       </c>
       <c r="Y157"/>
     </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>37</v>
       </c>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="Y158"/>
     </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>37</v>
       </c>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="Y159"/>
     </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>37</v>
       </c>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="Y160"/>
     </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>37</v>
       </c>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="Y161"/>
     </row>
-    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>37</v>
       </c>
@@ -23692,7 +23692,7 @@
       </c>
       <c r="Y162"/>
     </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>37</v>
       </c>
@@ -23738,7 +23738,7 @@
       </c>
       <c r="Y163"/>
     </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>37</v>
       </c>
@@ -23784,7 +23784,7 @@
       </c>
       <c r="Y164"/>
     </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>37</v>
       </c>
@@ -23826,7 +23826,7 @@
       </c>
       <c r="Y165"/>
     </row>
-    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>37</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>37</v>
       </c>
@@ -23916,7 +23916,7 @@
       </c>
       <c r="Y167"/>
     </row>
-    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>37</v>
       </c>
@@ -23960,7 +23960,7 @@
       </c>
       <c r="Y168"/>
     </row>
-    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>37</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>37</v>
       </c>
@@ -24042,7 +24042,7 @@
       <c r="T170"/>
       <c r="Y170"/>
     </row>
-    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>37</v>
       </c>
@@ -24074,7 +24074,7 @@
       <c r="T171"/>
       <c r="Y171"/>
     </row>
-    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>37</v>
       </c>
@@ -24106,7 +24106,7 @@
       <c r="T172"/>
       <c r="Y172"/>
     </row>
-    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>37</v>
       </c>
@@ -24142,7 +24142,7 @@
       <c r="T173"/>
       <c r="Y173"/>
     </row>
-    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>37</v>
       </c>
@@ -24178,7 +24178,7 @@
       <c r="T174"/>
       <c r="Y174"/>
     </row>
-    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>37</v>
       </c>
@@ -24214,7 +24214,7 @@
       <c r="T175"/>
       <c r="Y175"/>
     </row>
-    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>37</v>
       </c>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="Y176"/>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>37</v>
       </c>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="Y177"/>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>37</v>
       </c>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="Y178"/>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>37</v>
       </c>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="Y179"/>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>37</v>
       </c>
@@ -24447,7 +24447,7 @@
       <c r="T180"/>
       <c r="Y180"/>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>37</v>
       </c>
@@ -24479,7 +24479,7 @@
       <c r="T181"/>
       <c r="Y181"/>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>37</v>
       </c>
@@ -24511,7 +24511,7 @@
       <c r="T182"/>
       <c r="Y182"/>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>37</v>
       </c>
@@ -24546,7 +24546,7 @@
       <c r="T183"/>
       <c r="Y183"/>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>37</v>
       </c>
@@ -24581,7 +24581,7 @@
       <c r="T184"/>
       <c r="Y184"/>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>37</v>
       </c>
@@ -24616,7 +24616,7 @@
       <c r="T185"/>
       <c r="Y185"/>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>37</v>
       </c>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="Y186"/>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>37</v>
       </c>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="Y187"/>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>37</v>
       </c>
@@ -24771,7 +24771,7 @@
       </c>
       <c r="Y188"/>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>37</v>
       </c>
@@ -24803,7 +24803,7 @@
       <c r="T189"/>
       <c r="Y189"/>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>37</v>
       </c>
@@ -24835,7 +24835,7 @@
       <c r="T190"/>
       <c r="Y190"/>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>37</v>
       </c>
@@ -24867,7 +24867,7 @@
       <c r="T191"/>
       <c r="Y191"/>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>37</v>
       </c>
@@ -24902,7 +24902,7 @@
       <c r="T192"/>
       <c r="Y192"/>
     </row>
-    <row r="193" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>37</v>
       </c>
@@ -24938,7 +24938,7 @@
       <c r="T193"/>
       <c r="Y193"/>
     </row>
-    <row r="194" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>37</v>
       </c>
@@ -24974,7 +24974,7 @@
       <c r="T194"/>
       <c r="Y194"/>
     </row>
-    <row r="195" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>37</v>
       </c>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="Y195"/>
     </row>
-    <row r="196" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>37</v>
       </c>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="Y196"/>
     </row>
-    <row r="197" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>37</v>
       </c>
@@ -25132,7 +25132,7 @@
       </c>
       <c r="Y197"/>
     </row>
-    <row r="198" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>37</v>
       </c>
@@ -25185,7 +25185,7 @@
       </c>
       <c r="Y198"/>
     </row>
-    <row r="199" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>37</v>
       </c>
@@ -25220,7 +25220,7 @@
       <c r="U199"/>
       <c r="Y199"/>
     </row>
-    <row r="200" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>37</v>
       </c>
@@ -25255,7 +25255,7 @@
       <c r="U200"/>
       <c r="Y200"/>
     </row>
-    <row r="201" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>37</v>
       </c>
@@ -25290,7 +25290,7 @@
       <c r="U201"/>
       <c r="Y201"/>
     </row>
-    <row r="202" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>37</v>
       </c>
@@ -25328,7 +25328,7 @@
       <c r="U202"/>
       <c r="Y202"/>
     </row>
-    <row r="203" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>37</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="U203"/>
       <c r="Y203"/>
     </row>
-    <row r="204" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>37</v>
       </c>
@@ -25404,7 +25404,7 @@
       <c r="U204"/>
       <c r="Y204"/>
     </row>
-    <row r="205" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>37</v>
       </c>
@@ -25447,7 +25447,7 @@
       </c>
       <c r="Y205"/>
     </row>
-    <row r="206" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>37</v>
       </c>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="Y206"/>
     </row>
-    <row r="207" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>37</v>
       </c>
@@ -25562,7 +25562,7 @@
       </c>
       <c r="Y207"/>
     </row>
-    <row r="208" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>37</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>1628</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
@@ -25668,7 +25668,7 @@
       </c>
       <c r="Y209"/>
     </row>
-    <row r="210" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>37</v>
       </c>
@@ -25703,7 +25703,7 @@
       <c r="U210"/>
       <c r="Y210"/>
     </row>
-    <row r="211" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>37</v>
       </c>
@@ -25738,7 +25738,7 @@
       <c r="U211"/>
       <c r="Y211"/>
     </row>
-    <row r="212" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>37</v>
       </c>
@@ -25776,7 +25776,7 @@
       <c r="U212"/>
       <c r="Y212"/>
     </row>
-    <row r="213" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>37</v>
       </c>
@@ -25814,7 +25814,7 @@
       <c r="U213"/>
       <c r="Y213"/>
     </row>
-    <row r="214" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>37</v>
       </c>
@@ -25852,7 +25852,7 @@
       <c r="U214"/>
       <c r="Y214"/>
     </row>
-    <row r="215" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>37</v>
       </c>
@@ -25892,7 +25892,7 @@
       <c r="X215"/>
       <c r="Y215"/>
     </row>
-    <row r="216" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>37</v>
       </c>
@@ -25932,7 +25932,7 @@
       </c>
       <c r="Y216"/>
     </row>
-    <row r="217" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>37</v>
       </c>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="Y217"/>
     </row>
-    <row r="218" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>37</v>
       </c>
@@ -26040,7 +26040,7 @@
       </c>
       <c r="Y218"/>
     </row>
-    <row r="219" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>37</v>
       </c>
@@ -26084,7 +26084,7 @@
       </c>
       <c r="Y219"/>
     </row>
-    <row r="220" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>37</v>
       </c>
@@ -26116,7 +26116,7 @@
       <c r="T220"/>
       <c r="Y220"/>
     </row>
-    <row r="221" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>37</v>
       </c>
@@ -26148,7 +26148,7 @@
       <c r="T221"/>
       <c r="Y221"/>
     </row>
-    <row r="222" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>37</v>
       </c>
@@ -26180,7 +26180,7 @@
       <c r="T222"/>
       <c r="Y222"/>
     </row>
-    <row r="223" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>37</v>
       </c>
@@ -26215,7 +26215,7 @@
       <c r="T223"/>
       <c r="Y223"/>
     </row>
-    <row r="224" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>37</v>
       </c>
@@ -26251,7 +26251,7 @@
       <c r="T224"/>
       <c r="Y224"/>
     </row>
-    <row r="225" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>37</v>
       </c>
@@ -26287,7 +26287,7 @@
       <c r="T225"/>
       <c r="Y225"/>
     </row>
-    <row r="226" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>37</v>
       </c>
@@ -26327,7 +26327,7 @@
       </c>
       <c r="Y226"/>
     </row>
-    <row r="227" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>37</v>
       </c>
@@ -26382,7 +26382,7 @@
       </c>
       <c r="Y227"/>
     </row>
-    <row r="228" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>37</v>
       </c>
@@ -26437,7 +26437,7 @@
       </c>
       <c r="Y228"/>
     </row>
-    <row r="229" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>37</v>
       </c>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="Y229"/>
     </row>
-    <row r="230" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>37</v>
       </c>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="Y230"/>
     </row>
-    <row r="231" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>37</v>
       </c>
@@ -26575,7 +26575,7 @@
       </c>
       <c r="Y231"/>
     </row>
-    <row r="232" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>37</v>
       </c>
@@ -26625,7 +26625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="233" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>37</v>
       </c>
@@ -26657,7 +26657,7 @@
       <c r="T233"/>
       <c r="Y233"/>
     </row>
-    <row r="234" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>37</v>
       </c>
@@ -26689,7 +26689,7 @@
       <c r="T234"/>
       <c r="Y234"/>
     </row>
-    <row r="235" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>37</v>
       </c>
@@ -26721,7 +26721,7 @@
       <c r="T235"/>
       <c r="Y235"/>
     </row>
-    <row r="236" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>37</v>
       </c>
@@ -26756,7 +26756,7 @@
       <c r="T236"/>
       <c r="Y236"/>
     </row>
-    <row r="237" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>37</v>
       </c>
@@ -26791,7 +26791,7 @@
       <c r="T237"/>
       <c r="Y237"/>
     </row>
-    <row r="238" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>37</v>
       </c>
@@ -26826,7 +26826,7 @@
       <c r="T238"/>
       <c r="Y238"/>
     </row>
-    <row r="239" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>37</v>
       </c>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="Y239"/>
     </row>
-    <row r="240" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>37</v>
       </c>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="Y240"/>
     </row>
-    <row r="241" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>37</v>
       </c>
@@ -26978,7 +26978,7 @@
       </c>
       <c r="Y241"/>
     </row>
-    <row r="242" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>37</v>
       </c>
@@ -27028,7 +27028,7 @@
       </c>
       <c r="Y242"/>
     </row>
-    <row r="243" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>37</v>
       </c>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="Y243"/>
     </row>
-    <row r="244" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>37</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="245" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>37</v>
       </c>
@@ -27152,7 +27152,7 @@
       <c r="T245"/>
       <c r="Y245"/>
     </row>
-    <row r="246" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>37</v>
       </c>
@@ -27184,7 +27184,7 @@
       <c r="T246"/>
       <c r="Y246"/>
     </row>
-    <row r="247" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>37</v>
       </c>
@@ -27216,7 +27216,7 @@
       <c r="T247"/>
       <c r="Y247"/>
     </row>
-    <row r="248" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>37</v>
       </c>
@@ -27252,7 +27252,7 @@
       <c r="T248"/>
       <c r="Y248"/>
     </row>
-    <row r="249" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>37</v>
       </c>
@@ -27288,7 +27288,7 @@
       <c r="T249"/>
       <c r="Y249"/>
     </row>
-    <row r="250" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>37</v>
       </c>
@@ -27324,7 +27324,7 @@
       <c r="T250"/>
       <c r="Y250"/>
     </row>
-    <row r="251" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>37</v>
       </c>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="Y251"/>
     </row>
-    <row r="252" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>37</v>
       </c>
@@ -27422,7 +27422,7 @@
       </c>
       <c r="Y252"/>
     </row>
-    <row r="253" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>37</v>
       </c>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="Y253"/>
     </row>
-    <row r="254" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>37</v>
       </c>
@@ -27516,7 +27516,7 @@
       </c>
       <c r="Y254"/>
     </row>
-    <row r="255" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>37</v>
       </c>
@@ -27548,7 +27548,7 @@
       <c r="T255"/>
       <c r="Y255"/>
     </row>
-    <row r="256" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>37</v>
       </c>
@@ -27580,7 +27580,7 @@
       <c r="T256"/>
       <c r="Y256"/>
     </row>
-    <row r="257" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>37</v>
       </c>
@@ -27612,7 +27612,7 @@
       <c r="T257"/>
       <c r="Y257"/>
     </row>
-    <row r="258" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>37</v>
       </c>
@@ -27648,7 +27648,7 @@
       <c r="T258"/>
       <c r="Y258"/>
     </row>
-    <row r="259" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>37</v>
       </c>
@@ -27684,7 +27684,7 @@
       <c r="T259"/>
       <c r="Y259"/>
     </row>
-    <row r="260" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>37</v>
       </c>
@@ -27720,7 +27720,7 @@
       <c r="T260"/>
       <c r="Y260"/>
     </row>
-    <row r="261" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>37</v>
       </c>
@@ -27760,7 +27760,7 @@
       </c>
       <c r="Y261"/>
     </row>
-    <row r="262" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>37</v>
       </c>
@@ -27817,7 +27817,7 @@
       </c>
       <c r="Y262"/>
     </row>
-    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>37</v>
       </c>
@@ -27866,7 +27866,7 @@
       </c>
       <c r="Y263"/>
     </row>
-    <row r="264" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>37</v>
       </c>
@@ -27917,7 +27917,7 @@
       </c>
       <c r="Y264"/>
     </row>
-    <row r="265" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>37</v>
       </c>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="Y265"/>
     </row>
-    <row r="266" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>37</v>
       </c>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="Y266"/>
     </row>
-    <row r="267" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>37</v>
       </c>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="Y267"/>
     </row>
-    <row r="268" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>37</v>
       </c>
@@ -28121,7 +28121,7 @@
       </c>
       <c r="Y268"/>
     </row>
-    <row r="269" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>37</v>
       </c>
@@ -28173,7 +28173,7 @@
       </c>
       <c r="Y269"/>
     </row>
-    <row r="270" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>37</v>
       </c>
@@ -28212,7 +28212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>37</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>37</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="273" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>37</v>
       </c>
@@ -28339,7 +28339,7 @@
       <c r="T273"/>
       <c r="Y273"/>
     </row>
-    <row r="274" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>37</v>
       </c>
@@ -28371,7 +28371,7 @@
       <c r="T274"/>
       <c r="Y274"/>
     </row>
-    <row r="275" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>37</v>
       </c>
@@ -28403,7 +28403,7 @@
       <c r="T275"/>
       <c r="Y275"/>
     </row>
-    <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>37</v>
       </c>
@@ -28438,7 +28438,7 @@
       <c r="T276"/>
       <c r="Y276"/>
     </row>
-    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
         <v>37</v>
       </c>
@@ -28474,7 +28474,7 @@
       <c r="T277"/>
       <c r="Y277"/>
     </row>
-    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>37</v>
       </c>
@@ -28510,7 +28510,7 @@
       <c r="T278"/>
       <c r="Y278"/>
     </row>
-    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
         <v>37</v>
       </c>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="Y279"/>
     </row>
-    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>37</v>
       </c>
@@ -28607,7 +28607,7 @@
       </c>
       <c r="Y280"/>
     </row>
-    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
         <v>37</v>
       </c>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="Y281"/>
     </row>
-    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>37</v>
       </c>
@@ -28712,7 +28712,7 @@
       </c>
       <c r="Y282"/>
     </row>
-    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>37</v>
       </c>
@@ -28758,7 +28758,7 @@
       </c>
       <c r="Y283"/>
     </row>
-    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>37</v>
       </c>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="Y284"/>
     </row>
-    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>37</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
         <v>37</v>
       </c>
@@ -28882,7 +28882,7 @@
       <c r="T286"/>
       <c r="Y286"/>
     </row>
-    <row r="287" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>37</v>
       </c>
@@ -28914,7 +28914,7 @@
       <c r="T287"/>
       <c r="Y287"/>
     </row>
-    <row r="288" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
         <v>37</v>
       </c>
@@ -28946,7 +28946,7 @@
       <c r="T288"/>
       <c r="Y288"/>
     </row>
-    <row r="289" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
         <v>37</v>
       </c>
@@ -28982,7 +28982,7 @@
       <c r="T289"/>
       <c r="Y289"/>
     </row>
-    <row r="290" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
         <v>37</v>
       </c>
@@ -29018,7 +29018,7 @@
       <c r="T290"/>
       <c r="Y290"/>
     </row>
-    <row r="291" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
         <v>37</v>
       </c>
@@ -29054,7 +29054,7 @@
       <c r="T291"/>
       <c r="Y291"/>
     </row>
-    <row r="292" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>37</v>
       </c>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="Y292"/>
     </row>
-    <row r="293" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>37</v>
       </c>
@@ -29152,7 +29152,7 @@
       </c>
       <c r="Y293"/>
     </row>
-    <row r="294" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>37</v>
       </c>
@@ -29205,7 +29205,7 @@
       </c>
       <c r="Y294"/>
     </row>
-    <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>37</v>
       </c>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="Y295"/>
     </row>
-    <row r="296" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>37</v>
       </c>
@@ -29290,7 +29290,7 @@
       <c r="T296"/>
       <c r="Y296"/>
     </row>
-    <row r="297" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>37</v>
       </c>
@@ -29323,7 +29323,7 @@
       <c r="T297"/>
       <c r="Y297"/>
     </row>
-    <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>37</v>
       </c>
@@ -29356,7 +29356,7 @@
       <c r="T298"/>
       <c r="Y298"/>
     </row>
-    <row r="299" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>37</v>
       </c>
@@ -29392,7 +29392,7 @@
       <c r="T299"/>
       <c r="Y299"/>
     </row>
-    <row r="300" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>37</v>
       </c>
@@ -29428,7 +29428,7 @@
       <c r="T300"/>
       <c r="Y300"/>
     </row>
-    <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
         <v>37</v>
       </c>
@@ -29464,7 +29464,7 @@
       <c r="T301"/>
       <c r="Y301"/>
     </row>
-    <row r="302" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>37</v>
       </c>
@@ -29504,7 +29504,7 @@
       </c>
       <c r="Y302"/>
     </row>
-    <row r="303" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>37</v>
       </c>
@@ -29564,7 +29564,7 @@
       </c>
       <c r="Y303"/>
     </row>
-    <row r="304" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>37</v>
       </c>
@@ -29621,7 +29621,7 @@
       </c>
       <c r="Y304"/>
     </row>
-    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>37</v>
       </c>
@@ -29674,7 +29674,7 @@
       </c>
       <c r="Y305"/>
     </row>
-    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>37</v>
       </c>
@@ -29727,7 +29727,7 @@
       </c>
       <c r="Y306"/>
     </row>
-    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
         <v>37</v>
       </c>
@@ -29782,7 +29782,7 @@
       </c>
       <c r="Y307"/>
     </row>
-    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
         <v>37</v>
       </c>
@@ -29828,7 +29828,7 @@
       </c>
       <c r="Y308"/>
     </row>
-    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>37</v>
       </c>
@@ -29860,7 +29860,7 @@
       <c r="T309"/>
       <c r="Y309"/>
     </row>
-    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>37</v>
       </c>
@@ -29893,7 +29893,7 @@
       <c r="T310"/>
       <c r="Y310"/>
     </row>
-    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
         <v>37</v>
       </c>
@@ -29926,7 +29926,7 @@
       <c r="T311"/>
       <c r="Y311"/>
     </row>
-    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
         <v>37</v>
       </c>
@@ -29962,7 +29962,7 @@
       <c r="T312"/>
       <c r="Y312"/>
     </row>
-    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
         <v>37</v>
       </c>
@@ -29998,7 +29998,7 @@
       <c r="T313"/>
       <c r="Y313"/>
     </row>
-    <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>37</v>
       </c>
@@ -30034,7 +30034,7 @@
       <c r="T314"/>
       <c r="Y314"/>
     </row>
-    <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>37</v>
       </c>
@@ -30074,7 +30074,7 @@
       </c>
       <c r="Y315"/>
     </row>
-    <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>37</v>
       </c>
@@ -30129,7 +30129,7 @@
       </c>
       <c r="Y316"/>
     </row>
-    <row r="317" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>37</v>
       </c>
@@ -30184,7 +30184,7 @@
       </c>
       <c r="Y317"/>
     </row>
-    <row r="318" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
         <v>37</v>
       </c>
@@ -30236,7 +30236,7 @@
       </c>
       <c r="Y318"/>
     </row>
-    <row r="319" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>37</v>
       </c>
@@ -30280,7 +30280,7 @@
       </c>
       <c r="Y319"/>
     </row>
-    <row r="320" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>37</v>
       </c>
@@ -30312,7 +30312,7 @@
       <c r="T320"/>
       <c r="Y320"/>
     </row>
-    <row r="321" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>37</v>
       </c>
@@ -30344,7 +30344,7 @@
       <c r="T321"/>
       <c r="Y321"/>
     </row>
-    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>37</v>
       </c>
@@ -30376,7 +30376,7 @@
       <c r="T322"/>
       <c r="Y322"/>
     </row>
-    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
         <v>37</v>
       </c>
@@ -30412,7 +30412,7 @@
       <c r="T323"/>
       <c r="Y323"/>
     </row>
-    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>37</v>
       </c>
@@ -30448,7 +30448,7 @@
       <c r="T324"/>
       <c r="Y324"/>
     </row>
-    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>37</v>
       </c>
@@ -30484,7 +30484,7 @@
       <c r="T325"/>
       <c r="Y325"/>
     </row>
-    <row r="326" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30523,7 +30523,7 @@
       </c>
       <c r="Y326"/>
     </row>
-    <row r="327" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="Y327"/>
     </row>
-    <row r="328" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30636,7 +30636,7 @@
       </c>
       <c r="Y328"/>
     </row>
-    <row r="329" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30691,7 +30691,7 @@
       </c>
       <c r="Y329"/>
     </row>
-    <row r="330" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30723,7 +30723,7 @@
       <c r="T330"/>
       <c r="Y330"/>
     </row>
-    <row r="331" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30754,7 +30754,7 @@
       <c r="P331"/>
       <c r="T331"/>
     </row>
-    <row r="332" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30793,7 +30793,7 @@
       <c r="X332"/>
       <c r="Y332"/>
     </row>
-    <row r="333" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30834,7 +30834,7 @@
       <c r="X333"/>
       <c r="Y333"/>
     </row>
-    <row r="334" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30875,7 +30875,7 @@
       <c r="X334"/>
       <c r="Y334"/>
     </row>
-    <row r="335" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30916,7 +30916,7 @@
       <c r="X335"/>
       <c r="Y335"/>
     </row>
-    <row r="336" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>1535</v>
       </c>
@@ -30955,7 +30955,7 @@
       </c>
       <c r="Y336"/>
     </row>
-    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31013,7 +31013,7 @@
       </c>
       <c r="Y337"/>
     </row>
-    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31062,7 +31062,7 @@
       </c>
       <c r="Y338"/>
     </row>
-    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31094,7 +31094,7 @@
       <c r="T339"/>
       <c r="Y339"/>
     </row>
-    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31125,7 +31125,7 @@
       <c r="P340"/>
       <c r="T340"/>
     </row>
-    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31164,7 +31164,7 @@
       <c r="X341"/>
       <c r="Y341"/>
     </row>
-    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31205,7 +31205,7 @@
       <c r="X342"/>
       <c r="Y342"/>
     </row>
-    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31246,7 +31246,7 @@
       <c r="X343"/>
       <c r="Y343"/>
     </row>
-    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>1535</v>
       </c>
@@ -31287,7 +31287,7 @@
       <c r="X344"/>
       <c r="Y344"/>
     </row>
-    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>37</v>
       </c>
@@ -31327,7 +31327,7 @@
       </c>
       <c r="Y345"/>
     </row>
-    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>37</v>
       </c>
@@ -31379,7 +31379,7 @@
       </c>
       <c r="Y346"/>
     </row>
-    <row r="347" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>37</v>
       </c>
@@ -31437,7 +31437,7 @@
       </c>
       <c r="Y347"/>
     </row>
-    <row r="348" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>37</v>
       </c>
@@ -31487,7 +31487,7 @@
       </c>
       <c r="Y348"/>
     </row>
-    <row r="349" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>37</v>
       </c>
@@ -31531,7 +31531,7 @@
       </c>
       <c r="Y349"/>
     </row>
-    <row r="350" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>37</v>
       </c>
@@ -31577,7 +31577,7 @@
       </c>
       <c r="Y350"/>
     </row>
-    <row r="351" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>37</v>
       </c>
@@ -31619,7 +31619,7 @@
       </c>
       <c r="Y351"/>
     </row>
-    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>37</v>
       </c>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="Y352"/>
     </row>
-    <row r="353" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>37</v>
       </c>
@@ -31707,7 +31707,7 @@
       </c>
       <c r="Y353"/>
     </row>
-    <row r="354" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
         <v>37</v>
       </c>
@@ -31749,7 +31749,7 @@
       </c>
       <c r="Y354"/>
     </row>
-    <row r="355" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
         <v>37</v>
       </c>
@@ -31791,7 +31791,7 @@
       </c>
       <c r="Y355"/>
     </row>
-    <row r="356" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>37</v>
       </c>
@@ -31841,7 +31841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
         <v>37</v>
       </c>
@@ -31873,7 +31873,7 @@
       <c r="T357"/>
       <c r="Y357"/>
     </row>
-    <row r="358" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>37</v>
       </c>
@@ -31905,7 +31905,7 @@
       <c r="T358"/>
       <c r="Y358"/>
     </row>
-    <row r="359" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>37</v>
       </c>
@@ -31937,7 +31937,7 @@
       <c r="T359"/>
       <c r="Y359"/>
     </row>
-    <row r="360" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>37</v>
       </c>
@@ -31973,7 +31973,7 @@
       <c r="T360"/>
       <c r="Y360"/>
     </row>
-    <row r="361" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>37</v>
       </c>
@@ -32009,7 +32009,7 @@
       <c r="T361"/>
       <c r="Y361"/>
     </row>
-    <row r="362" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>37</v>
       </c>
@@ -32045,7 +32045,7 @@
       <c r="T362"/>
       <c r="Y362"/>
     </row>
-    <row r="363" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
         <v>37</v>
       </c>
@@ -32085,7 +32085,7 @@
       </c>
       <c r="Y363"/>
     </row>
-    <row r="364" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
         <v>37</v>
       </c>
@@ -32143,7 +32143,7 @@
       </c>
       <c r="Y364"/>
     </row>
-    <row r="365" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>37</v>
       </c>
@@ -32200,7 +32200,7 @@
       </c>
       <c r="Y365"/>
     </row>
-    <row r="366" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
         <v>37</v>
       </c>
@@ -32255,7 +32255,7 @@
       </c>
       <c r="Y366"/>
     </row>
-    <row r="367" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>37</v>
       </c>
@@ -32305,7 +32305,7 @@
       </c>
       <c r="Y367"/>
     </row>
-    <row r="368" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>37</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>37</v>
       </c>
@@ -32393,7 +32393,7 @@
       </c>
       <c r="Y369"/>
     </row>
-    <row r="370" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>37</v>
       </c>
@@ -32425,7 +32425,7 @@
       <c r="T370"/>
       <c r="Y370"/>
     </row>
-    <row r="371" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>37</v>
       </c>
@@ -32457,7 +32457,7 @@
       <c r="T371"/>
       <c r="Y371"/>
     </row>
-    <row r="372" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>37</v>
       </c>
@@ -32493,7 +32493,7 @@
       <c r="T372"/>
       <c r="Y372"/>
     </row>
-    <row r="373" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>37</v>
       </c>
@@ -32529,7 +32529,7 @@
       <c r="T373"/>
       <c r="Y373"/>
     </row>
-    <row r="374" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>37</v>
       </c>
@@ -32565,7 +32565,7 @@
       <c r="T374"/>
       <c r="Y374"/>
     </row>
-    <row r="375" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>37</v>
       </c>
@@ -32598,7 +32598,7 @@
       <c r="T375"/>
       <c r="Y375"/>
     </row>
-    <row r="376" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>37</v>
       </c>
@@ -32638,7 +32638,7 @@
       </c>
       <c r="Y376"/>
     </row>
-    <row r="377" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>37</v>
       </c>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="Y377"/>
     </row>
-    <row r="378" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>37</v>
       </c>
@@ -32741,7 +32741,7 @@
       </c>
       <c r="Y378"/>
     </row>
-    <row r="379" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>37</v>
       </c>
@@ -32773,7 +32773,7 @@
       <c r="T379"/>
       <c r="Y379"/>
     </row>
-    <row r="380" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>37</v>
       </c>
@@ -32805,7 +32805,7 @@
       <c r="T380"/>
       <c r="Y380"/>
     </row>
-    <row r="381" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>37</v>
       </c>
@@ -32837,7 +32837,7 @@
       <c r="T381"/>
       <c r="Y381"/>
     </row>
-    <row r="382" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>37</v>
       </c>
@@ -32873,7 +32873,7 @@
       <c r="T382"/>
       <c r="Y382"/>
     </row>
-    <row r="383" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>37</v>
       </c>
@@ -32909,7 +32909,7 @@
       <c r="T383"/>
       <c r="Y383"/>
     </row>
-    <row r="384" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>37</v>
       </c>
@@ -32937,7 +32937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="385" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>37</v>
       </c>
@@ -32977,7 +32977,7 @@
       </c>
       <c r="Y385"/>
     </row>
-    <row r="386" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>37</v>
       </c>
@@ -33037,7 +33037,7 @@
       </c>
       <c r="Y386"/>
     </row>
-    <row r="387" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>37</v>
       </c>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="Y387"/>
     </row>
-    <row r="388" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>37</v>
       </c>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="Y388"/>
     </row>
-    <row r="389" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
         <v>37</v>
       </c>
@@ -33191,7 +33191,7 @@
       </c>
       <c r="Y389"/>
     </row>
-    <row r="390" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
         <v>37</v>
       </c>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="Y390"/>
     </row>
-    <row r="391" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
         <v>37</v>
       </c>
@@ -33280,7 +33280,7 @@
       </c>
       <c r="Y391"/>
     </row>
-    <row r="392" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>37</v>
       </c>
@@ -33312,7 +33312,7 @@
       <c r="T392"/>
       <c r="Y392"/>
     </row>
-    <row r="393" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
         <v>37</v>
       </c>
@@ -33344,7 +33344,7 @@
       <c r="T393"/>
       <c r="Y393"/>
     </row>
-    <row r="394" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
         <v>37</v>
       </c>
@@ -33376,7 +33376,7 @@
       <c r="T394"/>
       <c r="Y394"/>
     </row>
-    <row r="395" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
         <v>37</v>
       </c>
@@ -33412,7 +33412,7 @@
       <c r="T395"/>
       <c r="Y395"/>
     </row>
-    <row r="396" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
         <v>37</v>
       </c>
@@ -33448,7 +33448,7 @@
       <c r="T396"/>
       <c r="Y396"/>
     </row>
-    <row r="397" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>37</v>
       </c>
@@ -33476,13 +33476,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y397">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="numeric"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y397"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
